--- a/SOV_docs/BKS/BKS1_SOV.xlsx
+++ b/SOV_docs/BKS/BKS1_SOV.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baldwininsurance-my.sharepoint.com/personal/whitney_cotter_baldwin_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baldwininsurance-my.sharepoint.com/personal/jennifer_gutierrez_baldwin_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{951F7584-3F73-4578-87C8-C63D2A0D23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{5C8C2628-7BE0-402E-AB91-0CA414979FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B60B1D3-B878-41F1-8AE9-97CD6F1706A9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="assocfees">Sheet2!$F:$F</definedName>
+    <definedName name="construction">Sheet2!$E:$E</definedName>
+    <definedName name="garagetype">Sheet2!$B:$B</definedName>
+    <definedName name="rooftype">Sheet2!$A:$A</definedName>
+    <definedName name="smokedetector">Sheet2!$D:$D</definedName>
+    <definedName name="sprinklered">Sheet2!$C:$C</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,76 +33,264 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Year Built</t>
-  </si>
-  <si>
-    <t>Stories</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Replacement Cost</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
-    <t>Bldg</t>
-  </si>
-  <si>
-    <t>Attached Garage Area</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E. Railroad Ave</t>
-  </si>
-  <si>
-    <t>Bartlett</t>
-  </si>
-  <si>
-    <t>Masonry</t>
-  </si>
-  <si>
-    <t>Bartlett Town Center Building 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+  <si>
+    <t>STATEMENT OF VALUES FOR:</t>
+  </si>
+  <si>
+    <t>EFFECTIVE DATE:</t>
+  </si>
+  <si>
+    <t>LOCATION (STATE, CITY, ZIP):</t>
+  </si>
+  <si>
+    <t>Bldg #</t>
+  </si>
+  <si>
+    <t>Address #</t>
+  </si>
+  <si>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>Unit #s (if applicable)</t>
+  </si>
+  <si>
+    <t>Building Replacement Cost (including Garages)</t>
+  </si>
+  <si>
+    <t># of Units</t>
+  </si>
+  <si>
+    <t>Livable Square Footage</t>
+  </si>
+  <si>
+    <t>Garage Square Footage</t>
+  </si>
+  <si>
+    <t>TOTAL BUILDING REPLACEMENT COST:</t>
+  </si>
+  <si>
+    <t>SEPARATE STRUCTURES / MISC.</t>
+  </si>
+  <si>
+    <t>REPLACEMENT COST</t>
+  </si>
+  <si>
+    <t>SQUARE FOOTAGE</t>
+  </si>
+  <si>
+    <t>Number of Stories:</t>
+  </si>
+  <si>
+    <t>TOTAL SQUARE FOOTAGE:</t>
+  </si>
+  <si>
+    <t>Roof Type:</t>
+  </si>
+  <si>
+    <t>Fences / Gates:</t>
+  </si>
+  <si>
+    <t>Garage Type:</t>
+  </si>
+  <si>
+    <t>Paved Surfaces:</t>
+  </si>
+  <si>
+    <t>Sprinklered:</t>
+  </si>
+  <si>
+    <t>Smoke Detectors:</t>
+  </si>
+  <si>
+    <t>Carports:</t>
+  </si>
+  <si>
+    <t>Construction Type:</t>
+  </si>
+  <si>
+    <t>Detached Garages:</t>
+  </si>
+  <si>
+    <t>Year of Construction:</t>
+  </si>
+  <si>
+    <t>Pool Restroom Building:</t>
+  </si>
+  <si>
+    <t>TOTAL BLANKET REPLACEMENT COST:</t>
+  </si>
+  <si>
+    <t>TOTAL BUSINESS PERSONAL PROPERTY:</t>
+  </si>
+  <si>
+    <t>TOTAL BUILDING ORDINANCE:</t>
+  </si>
+  <si>
+    <t>SEPARATE STRUCTURES TOTAL:</t>
+  </si>
+  <si>
+    <t>TOTAL BUSINESS INCOME:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tile </t>
+  </si>
+  <si>
+    <t>Habitational over Garage</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Comp.</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hard-Wired</t>
+  </si>
+  <si>
+    <t>Joisted Masonry</t>
+  </si>
+  <si>
+    <t>Actual Loss Sustained Total:</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Fire Resistive</t>
+  </si>
+  <si>
+    <t>Shake</t>
+  </si>
+  <si>
+    <t>Subterranean</t>
+  </si>
+  <si>
+    <t>Steel Frame w/ Concrete Block</t>
+  </si>
+  <si>
+    <t>Masonry Above-Ground</t>
+  </si>
+  <si>
+    <t>Partial Subterranean</t>
+  </si>
+  <si>
+    <t>Pool/Spa:</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>Tot Lot/Playground</t>
+  </si>
+  <si>
+    <t>Brittany Place Condominium Association</t>
+  </si>
+  <si>
+    <t>Arlington Heights, IL 60005</t>
+  </si>
+  <si>
+    <t>603 Falcon Dr. &amp; 2303 S Goebbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2307-2311 </t>
+  </si>
+  <si>
+    <t>S Goebert Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">703-707 </t>
+  </si>
+  <si>
+    <t>Falcon Dr</t>
+  </si>
+  <si>
+    <t>2315-2319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711-715 </t>
+  </si>
+  <si>
+    <t>E Falcon Dr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2323-2403 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2407-2411 </t>
+  </si>
+  <si>
+    <t>2415-2419</t>
+  </si>
+  <si>
+    <t>602-606</t>
+  </si>
+  <si>
+    <t>Algonquin Rd.</t>
+  </si>
+  <si>
+    <t>710-714</t>
+  </si>
+  <si>
+    <t>702-706</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>Business Income</t>
+  </si>
+  <si>
+    <t>A-bldg limt; B&amp;C Combined</t>
+  </si>
+  <si>
+    <t>Pergola-Gazebo:</t>
+  </si>
+  <si>
+    <t>R2323-2403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +299,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,23 +329,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,58 +378,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -202,7 +478,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -215,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +537,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -289,7 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,10 +605,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,171 +781,1406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="36">
+        <v>46022</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10">
+        <v>4953205</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+      <c r="G6" s="20">
+        <v>25191</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20">
+        <v>7253</v>
+      </c>
+      <c r="J6" s="20">
+        <v>65252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10">
+        <v>5618194</v>
+      </c>
+      <c r="F7" s="11">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20">
+        <v>28573</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>8128</v>
+      </c>
+      <c r="J7" s="20">
+        <v>74014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10">
+        <v>8590590</v>
+      </c>
+      <c r="F8" s="11">
+        <v>22</v>
+      </c>
+      <c r="G8" s="20">
+        <v>43690</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20">
+        <v>12044</v>
+      </c>
+      <c r="J8" s="20">
+        <v>113172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10">
+        <v>4953205</v>
+      </c>
+      <c r="F9" s="11">
+        <v>20</v>
+      </c>
+      <c r="G9" s="20">
+        <v>25191</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
+        <v>7253</v>
+      </c>
+      <c r="J9" s="20">
+        <v>65252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10">
+        <v>8590590</v>
+      </c>
+      <c r="F10" s="11">
+        <v>22</v>
+      </c>
+      <c r="G10" s="20">
+        <v>43690</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
+        <v>12044</v>
+      </c>
+      <c r="J10" s="20">
+        <v>113172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10">
+        <v>8590590</v>
+      </c>
+      <c r="F11" s="11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="20">
+        <v>43690</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20">
+        <v>12044</v>
+      </c>
+      <c r="J11" s="20">
+        <v>113172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10">
+        <v>6858708</v>
+      </c>
+      <c r="F12" s="11">
+        <v>18</v>
+      </c>
+      <c r="G12" s="20">
+        <v>34882</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20">
+        <v>9765</v>
+      </c>
+      <c r="J12" s="20">
+        <v>90356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10">
+        <v>4953206</v>
+      </c>
+      <c r="F13" s="11">
+        <v>20</v>
+      </c>
+      <c r="G13" s="20">
+        <v>25191</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>7253</v>
+      </c>
+      <c r="J13" s="20">
+        <v>65252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10">
+        <v>8590590</v>
+      </c>
+      <c r="F14" s="11">
+        <v>22</v>
+      </c>
+      <c r="G14" s="20">
+        <v>43690</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>12044</v>
+      </c>
+      <c r="J14" s="20">
+        <v>113172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10">
+        <v>8590590</v>
+      </c>
+      <c r="F15" s="11">
+        <v>22</v>
+      </c>
+      <c r="G15" s="20">
+        <v>43690</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
+        <v>12044</v>
+      </c>
+      <c r="J15" s="20">
+        <v>113172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
+        <v>5618195</v>
+      </c>
+      <c r="F16" s="11">
+        <v>22</v>
+      </c>
+      <c r="G16" s="20">
+        <v>28573</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
+        <v>8128</v>
+      </c>
+      <c r="J16" s="20">
+        <v>74014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>18</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>19</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>22</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>24</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>26</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>28</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>29</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>30</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>31</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>32</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>33</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>34</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>35</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>36</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>37</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>38</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>39</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>40</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>41</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>42</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>43</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>44</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>45</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>46</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>47</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>48</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>49</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>51</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>52</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>53</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16">
+        <f t="shared" ref="E60:J60" si="0">SUM(E6:E59)</f>
+        <v>75907663</v>
+      </c>
+      <c r="F60" s="18">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="G60" s="19">
+        <f t="shared" si="0"/>
+        <v>386051</v>
+      </c>
+      <c r="H60" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I60" s="19">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+      <c r="J60" s="19">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="D62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="19">
+        <f>G60+H60+D72</f>
+        <v>386051</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="9">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="C65" s="10"/>
+      <c r="D65" s="11">
+        <v>109500</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="6">
+        <f>E60+C72</f>
+        <v>75907663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>271</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
-        <v>60103</v>
-      </c>
-      <c r="G3" s="7">
-        <v>47700</v>
-      </c>
-      <c r="H3" s="7">
-        <v>11925</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="14">
-        <v>2007</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>24</v>
-      </c>
-      <c r="M3" s="15">
-        <v>14364000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="11"/>
-      <c r="G4" s="12">
-        <f>SUM(G3:G3)</f>
-        <v>47700</v>
-      </c>
-      <c r="H4" s="12">
-        <f>SUM(H3:H3)</f>
-        <v>11925</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="L4" s="10">
-        <f>SUM(L3:L3)</f>
-        <v>24</v>
-      </c>
-      <c r="M4" s="12">
-        <f>SUM(M3:M3)</f>
-        <v>14364000</v>
+      <c r="C70" s="26"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="27">
+        <f>I60</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="21">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="14">
+        <f>SUM(C63:C71)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="25">
+        <f>SUM(D67:D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="34">
+        <f>J60</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M3">
-    <sortCondition ref="A3"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>rooftype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>sprinklered</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F66" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>smokedetector</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>construction</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>assocfees</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>garagetype</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="74" orientation="landscape" verticalDpi="2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -675,10 +2190,335 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="03572007-efe5-4fb3-aed7-a41d0c924ebd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071D0D5C853A1DE4F8949B78BEBF0E4DC" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d38392f2f6992ef45a4236bbc4137265">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e" xmlns:ns3="03572007-efe5-4fb3-aed7-a41d0c924ebd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ee140ba5d276b6624eb537f06ce516e" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e"/>
+    <xsd:import namespace="03572007-efe5-4fb3-aed7-a41d0c924ebd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:Date" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Date" ma:index="14" nillable="true" ma:displayName="Date" ma:format="DateTime" ma:internalName="Date">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="3344de64-a3b7-4a41-b424-6b5622b54bb3" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="03572007-efe5-4fb3-aed7-a41d0c924ebd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{0f0e9d81-9041-4675-a257-c1090fff7026}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="03572007-efe5-4fb3-aed7-a41d0c924ebd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88DF815B-F12F-475E-9F30-9FD44FD0DF71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e"/>
+    <ds:schemaRef ds:uri="03572007-efe5-4fb3-aed7-a41d0c924ebd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A162A7DA-A3EB-4E9D-9341-BD5191EFD723}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04EAE9D-932E-4826-9975-C4F7A9E84FAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a41ad68-e0e0-4f41-8011-1d1bc4d7905e"/>
+    <ds:schemaRef ds:uri="03572007-efe5-4fb3-aed7-a41d0c924ebd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
